--- a/Packages/cn.etetet.excel/ExcelSample/UnitAttribute_配置示例2.xlsx
+++ b/Packages/cn.etetet.excel/ExcelSample/UnitAttribute_配置示例2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitAttribute" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="138">
   <si>
     <t>cs</t>
   </si>
@@ -205,28 +205,22 @@
     <t>冰冻伤害 +{0}%</t>
   </si>
   <si>
+    <t>属性字段名</t>
+  </si>
+  <si>
     <t>#说明</t>
   </si>
   <si>
-    <t>属性字段名</t>
-  </si>
-  <si>
-    <t>属性id</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
-    <t>AttributeId</t>
-  </si>
-  <si>
     <t>const</t>
   </si>
   <si>
+    <t>Max</t>
+  </si>
+  <si>
     <t>最大属性id</t>
-  </si>
-  <si>
-    <t>Max</t>
   </si>
   <si>
     <t>移动速度</t>
@@ -461,7 +455,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,8 +504,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -991,137 +998,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1142,13 +1149,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1160,8 +1178,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1232,16 +1250,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1258,8 +1276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8100060" y="731520"/>
-          <a:ext cx="10271760" cy="2613660"/>
+          <a:off x="7618730" y="688340"/>
+          <a:ext cx="10746740" cy="2447925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1564,21 +1582,21 @@
   <sheetPr/>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6666666666667" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.8888888888889" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.4444444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.8888888888889" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.3333333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="21.1150442477876" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7787610619469" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6637168141593" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.2212389380531" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.8849557522124" style="16" customWidth="1"/>
+    <col min="6" max="6" width="11.4424778761062" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4424778761062" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.8849557522124" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.3362831858407" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1591,72 +1609,72 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="16.2" spans="3:9">
-      <c r="C3" s="12" t="s">
+    <row r="3" ht="15.75" spans="3:9">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="16.2" spans="3:9">
-      <c r="C4" s="12" t="s">
+    <row r="4" ht="15.75" spans="3:9">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.2" spans="3:9">
-      <c r="C5" s="12" t="s">
+    <row r="5" ht="15.75" spans="3:9">
+      <c r="C5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="13.2" spans="3:9">
+    <row r="6" s="7" customFormat="1" ht="12.35" spans="3:9">
       <c r="C6" s="9">
         <v>1000</v>
       </c>
@@ -1669,13 +1687,13 @@
       <c r="F6" s="9">
         <v>1000</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="23">
         <v>1</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="9">
@@ -2172,20 +2190,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="21.1150442477876" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7787610619469" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.1150442477876" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.8849557522124" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2193,685 +2210,719 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="6:6">
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="16.2" spans="3:6">
-      <c r="C3" s="3" t="s">
+    <row r="3" ht="14.6" spans="3:5">
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="4" ht="14.6" spans="3:5">
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:5">
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="5" ht="14.6" spans="3:5">
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" ht="13.85" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C6" s="12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="13.85" spans="1:5">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" ht="13.85" spans="3:5">
+      <c r="C8" s="13">
+        <v>10001</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" ht="13.85" spans="3:5">
+      <c r="C9" s="13">
+        <v>10002</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" ht="13.85" spans="3:5">
+      <c r="C10" s="13">
+        <v>10003</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="9">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="9">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="9">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" ht="13.85" spans="1:5">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="13">
         <v>10004</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" ht="13.85" spans="1:5">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="13">
         <v>10005</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" ht="13.85" spans="1:5">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="13">
+        <v>1001</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="13.85" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="13">
+        <v>10011</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="9">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" ht="13.85" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="13">
+        <v>10012</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="9">
-        <v>10012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" ht="13.85" spans="1:5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="13">
+        <v>10013</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="9">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="9" t="s">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" ht="13.85" spans="3:5">
+      <c r="C17" s="13">
+        <v>1002</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" ht="13.85" spans="3:5">
+      <c r="C18" s="13">
+        <v>10021</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" ht="13.85" spans="3:5">
+      <c r="C19" s="14">
+        <v>10022</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" ht="13.85" spans="3:5">
+      <c r="C20" s="13">
+        <v>10023</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" ht="13.85" spans="3:5">
+      <c r="C21" s="14">
+        <v>10024</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="9">
-        <v>10021</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="1" t="s">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" ht="13.85" spans="3:5">
+      <c r="C22" s="13">
+        <v>10025</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="2">
-        <v>10022</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="9">
-        <v>10023</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="1" t="s">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" ht="13.85" spans="3:5">
+      <c r="C23" s="14">
+        <v>1003</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="2">
-        <v>10024</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="1" t="s">
+    </row>
+    <row r="24" ht="13.85" spans="3:5">
+      <c r="C24" s="14">
+        <v>10031</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="9">
-        <v>10025</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="1" t="s">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" ht="13.85" spans="3:5">
+      <c r="C25" s="14">
+        <v>10032</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="1" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" ht="13.85" spans="3:5">
+      <c r="C26" s="14">
+        <v>10033</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="2">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="1" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="13.85" spans="3:5">
+      <c r="C27" s="14">
+        <v>10034</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="2">
-        <v>10032</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" s="1" t="s">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" ht="13.85" spans="3:5">
+      <c r="C28" s="14">
+        <v>10035</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="2">
-        <v>10033</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="1" t="s">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" ht="13.85" spans="3:5">
+      <c r="C29" s="13">
+        <v>1004</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="2">
-        <v>10034</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="30" ht="13.85" spans="3:5">
+      <c r="C30" s="13">
+        <v>10041</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="2">
-        <v>10035</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="9" t="s">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" ht="13.85" spans="3:5">
+      <c r="C31" s="14">
+        <v>10042</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" ht="13.85" spans="3:5">
+      <c r="C32" s="13">
+        <v>10043</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" ht="13.85" spans="3:5">
+      <c r="C33" s="14">
+        <v>10044</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="9">
-        <v>10041</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5">
-      <c r="D31" s="1" t="s">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" ht="13.85" spans="3:5">
+      <c r="C34" s="13">
+        <v>10045</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="2">
-        <v>10042</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5">
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="9">
-        <v>10043</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="1" t="s">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" ht="13.85" spans="3:5">
+      <c r="C35" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="2">
-        <v>10044</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="36" ht="13.85" spans="3:5">
+      <c r="C36" s="13">
+        <v>10051</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="9">
-        <v>10045</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="9" t="s">
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" ht="13.85" spans="3:5">
+      <c r="C37" s="14">
+        <v>10052</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" ht="13.85" spans="3:5">
+      <c r="C38" s="13">
+        <v>10053</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="9">
-        <v>10051</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" s="1" t="s">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" ht="13.85" spans="3:5">
+      <c r="C39" s="14">
+        <v>10054</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="2">
-        <v>10052</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38" s="1" t="s">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" ht="13.85" spans="3:5">
+      <c r="C40" s="13">
+        <v>10055</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="9">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="1" t="s">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" ht="13.85" spans="3:5">
+      <c r="C41" s="13">
+        <v>1006</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="2">
-        <v>10054</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="42" ht="13.85" spans="3:5">
+      <c r="C42" s="13">
+        <v>10061</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="9">
-        <v>10055</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="9" t="s">
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" ht="13.85" spans="3:5">
+      <c r="C43" s="14">
+        <v>10062</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="9">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" ht="13.85" spans="3:5">
+      <c r="C44" s="13">
+        <v>10063</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="9">
-        <v>10061</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43" s="1" t="s">
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" ht="13.85" spans="3:5">
+      <c r="C45" s="14">
+        <v>10064</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="2">
-        <v>10062</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44" s="1" t="s">
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" ht="13.85" spans="3:5">
+      <c r="C46" s="13">
+        <v>10065</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="9">
-        <v>10063</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45" s="1" t="s">
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" ht="13.85" spans="3:5">
+      <c r="C47" s="13">
+        <v>1007</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="2">
-        <v>10064</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="D46" s="1" t="s">
+    </row>
+    <row r="48" ht="13.85" spans="3:5">
+      <c r="C48" s="13">
+        <v>10071</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="9">
-        <v>10065</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="9" t="s">
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" ht="13.85" spans="3:5">
+      <c r="C49" s="14">
+        <v>10072</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" ht="13.85" spans="3:5">
+      <c r="C50" s="13">
+        <v>10073</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="9">
-        <v>10071</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="1" t="s">
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" ht="13.85" spans="3:5">
+      <c r="C51" s="14">
+        <v>10074</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="2">
-        <v>10072</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5">
-      <c r="D50" s="1" t="s">
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" ht="13.85" spans="3:5">
+      <c r="C52" s="13">
+        <v>10075</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="9">
-        <v>10073</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5">
-      <c r="D51" s="1" t="s">
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" ht="13.85" spans="3:5">
+      <c r="C53" s="13">
+        <v>1008</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="2">
-        <v>10074</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5">
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="54" ht="13.85" spans="3:5">
+      <c r="C54" s="13">
+        <v>10081</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="9">
-        <v>10075</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5">
-      <c r="C53" s="1" t="s">
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" ht="13.85" spans="3:5">
+      <c r="C55" s="14">
+        <v>10082</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="9">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5">
-      <c r="D54" s="9" t="s">
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" ht="13.85" spans="3:5">
+      <c r="C56" s="13">
+        <v>10083</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="9">
-        <v>10081</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5">
-      <c r="D55" s="1" t="s">
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" ht="13.85" spans="3:5">
+      <c r="C57" s="14">
+        <v>10084</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="2">
-        <v>10082</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5">
-      <c r="D56" s="1" t="s">
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" ht="13.85" spans="3:5">
+      <c r="C58" s="13">
+        <v>10085</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="9">
-        <v>10083</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5">
-      <c r="D57" s="1" t="s">
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" ht="13.85" spans="3:5">
+      <c r="C59" s="13">
+        <v>1009</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="2">
-        <v>10084</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5">
-      <c r="D58" s="1" t="s">
+    </row>
+    <row r="60" ht="13.85" spans="3:5">
+      <c r="C60" s="13">
+        <v>10091</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="9">
-        <v>10085</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5">
-      <c r="C59" s="9" t="s">
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" ht="13.85" spans="3:5">
+      <c r="C61" s="14">
+        <v>10092</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="9">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5">
-      <c r="C60" s="9"/>
-      <c r="D60" s="9" t="s">
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" ht="13.85" spans="3:5">
+      <c r="C62" s="13">
+        <v>10093</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="9">
-        <v>10091</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5">
-      <c r="D61" s="1" t="s">
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" ht="13.85" spans="3:5">
+      <c r="C63" s="14">
+        <v>10094</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E61" s="2">
-        <v>10092</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5">
-      <c r="D62" s="1" t="s">
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" ht="13.85" spans="3:5">
+      <c r="C64" s="13">
+        <v>10095</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="9">
-        <v>10093</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5">
-      <c r="D63" s="1" t="s">
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" ht="13.85" spans="3:5">
+      <c r="C65" s="13">
+        <v>1010</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="2">
-        <v>10094</v>
-      </c>
-    </row>
-    <row r="64" spans="4:5">
-      <c r="D64" s="1" t="s">
+    </row>
+    <row r="66" ht="13.85" spans="3:5">
+      <c r="C66" s="13">
+        <v>10101</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="9">
-        <v>10095</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5">
-      <c r="C65" s="9" t="s">
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" ht="13.85" spans="3:5">
+      <c r="C67" s="14">
+        <v>10102</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="9">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5">
-      <c r="C66" s="9"/>
-      <c r="D66" s="9" t="s">
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" ht="13.85" spans="3:5">
+      <c r="C68" s="13">
+        <v>10103</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="9">
-        <v>10101</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5">
-      <c r="D67" s="1" t="s">
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" ht="13.85" spans="3:5">
+      <c r="C69" s="14">
+        <v>10104</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="2">
-        <v>10102</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5">
-      <c r="D68" s="1" t="s">
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" ht="13.85" spans="3:5">
+      <c r="C70" s="13">
+        <v>10105</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="9">
-        <v>10103</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5">
-      <c r="D69" s="1" t="s">
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" ht="13.85" spans="3:5">
+      <c r="C71" s="13">
+        <v>1011</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="2">
-        <v>10104</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5">
-      <c r="D70" s="1" t="s">
+    </row>
+    <row r="72" ht="13.85" spans="3:5">
+      <c r="C72" s="13">
+        <v>10111</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E70" s="9">
-        <v>10105</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5">
-      <c r="C71" s="9" t="s">
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" ht="13.85" spans="3:5">
+      <c r="C73" s="14">
+        <v>10112</v>
+      </c>
+      <c r="D73" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" s="9">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="C72" s="9"/>
-      <c r="D72" s="9" t="s">
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" ht="13.85" spans="3:5">
+      <c r="C74" s="13">
+        <v>10113</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E72" s="9">
-        <v>10111</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5">
-      <c r="D73" s="1" t="s">
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" ht="13.85" spans="3:5">
+      <c r="C75" s="14">
+        <v>10114</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="2">
-        <v>10112</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5">
-      <c r="D74" s="1" t="s">
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" ht="13.85" spans="3:5">
+      <c r="C76" s="13">
+        <v>10115</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="9">
-        <v>10113</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5">
-      <c r="D75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="2">
-        <v>10114</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5">
-      <c r="D76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="9">
-        <v>10115</v>
-      </c>
+      <c r="E76" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2890,13 +2941,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="13.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="20.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="20.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="12.5575221238938" customWidth="1"/>
+    <col min="2" max="2" width="13.5575221238938" customWidth="1"/>
+    <col min="3" max="3" width="13.8849557522124" customWidth="1"/>
+    <col min="4" max="4" width="20.1150442477876" customWidth="1"/>
+    <col min="5" max="5" width="20.5575221238938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2918,33 +2969,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="16.2" spans="1:6">
+    <row r="3" ht="15.75" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="16.2" spans="1:5">
+    <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2954,33 +3005,33 @@
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7" s="8"/>
     </row>
